--- a/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#70#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/Parameters_model#LR_name#FC.xlsx
+++ b/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#70#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/Parameters_model#LR_name#FC.xlsx
@@ -426,25 +426,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-9.569250418408048E-06</v>
+        <v>-2.965835413187003E-06</v>
       </c>
       <c r="C2">
-        <v>0.001514937689008339</v>
+        <v>0.001818943351928775</v>
       </c>
       <c r="D2">
-        <v>-0.0009836973989025724</v>
+        <v>-0.001052055384814335</v>
       </c>
       <c r="E2">
-        <v>-0.001896384587517674</v>
+        <v>-0.002542485969781809</v>
       </c>
       <c r="F2">
-        <v>-0.0009465124917103696</v>
+        <v>-0.0006297753074480227</v>
       </c>
       <c r="G2">
-        <v>-0.003193121572822011</v>
+        <v>-0.002490169495753901</v>
       </c>
       <c r="H2">
-        <v>-0.002243964666851469</v>
+        <v>-0.001193833977025278</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.03475092137266397</v>
+        <v>-3.241180484844708E-06</v>
       </c>
       <c r="C3">
-        <v>0.06448739203392299</v>
+        <v>0.00148879591601907</v>
       </c>
       <c r="D3">
-        <v>-0.06948280217010155</v>
+        <v>-0.001886925660015568</v>
       </c>
       <c r="E3">
-        <v>-0.1094075233203651</v>
+        <v>-0.002145815533042654</v>
       </c>
       <c r="F3">
-        <v>-0.1012034371272806</v>
+        <v>-0.0009646610681498822</v>
       </c>
       <c r="G3">
-        <v>-0.175593033418647</v>
+        <v>-0.002758743218622398</v>
       </c>
       <c r="H3">
-        <v>-0.01864468596017884</v>
+        <v>-0.001316982070430192</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.000861169818745806</v>
+        <v>-1.320230673293554E-05</v>
       </c>
       <c r="C4">
-        <v>0.00101744868371423</v>
+        <v>0.002196387870889164</v>
       </c>
       <c r="D4">
-        <v>-0.002082006110110805</v>
+        <v>-0.001528333877214764</v>
       </c>
       <c r="E4">
-        <v>-0.002035605990143676</v>
+        <v>-0.002906139349003352</v>
       </c>
       <c r="F4">
-        <v>-0.001422409154717914</v>
+        <v>-0.001014487992051213</v>
       </c>
       <c r="G4">
-        <v>-0.003357408739093458</v>
+        <v>-0.003339701673469256</v>
       </c>
       <c r="H4">
-        <v>-0.002082511536899049</v>
+        <v>-0.0009997255644896858</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-3.929996301236076E-06</v>
+        <v>-2.94455338023848E-06</v>
       </c>
       <c r="C5">
-        <v>0.0009082991385954123</v>
+        <v>0.001604732311331297</v>
       </c>
       <c r="D5">
-        <v>-0.001689445270393329</v>
+        <v>-0.0001945038655362861</v>
       </c>
       <c r="E5">
-        <v>-0.00183990480737537</v>
+        <v>-0.00255374810857524</v>
       </c>
       <c r="F5">
-        <v>-0.001198112802372765</v>
+        <v>-0.0009018387184945278</v>
       </c>
       <c r="G5">
-        <v>-0.003211355210547216</v>
+        <v>-0.002542619323170581</v>
       </c>
       <c r="H5">
-        <v>-0.002339081772258936</v>
+        <v>-0.00153424366237241</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-4.044810012667012E-06</v>
+        <v>-4.242990458564568E-06</v>
       </c>
       <c r="C6">
-        <v>0.001827885757913167</v>
+        <v>0.001830722678579138</v>
       </c>
       <c r="D6">
-        <v>-0.001264847578169581</v>
+        <v>-0.0009701619481652503</v>
       </c>
       <c r="E6">
-        <v>-0.002406239960078957</v>
+        <v>-0.002565921618516951</v>
       </c>
       <c r="F6">
-        <v>-0.0009149823190039973</v>
+        <v>-0.001628221006253187</v>
       </c>
       <c r="G6">
-        <v>-0.002775852412937927</v>
+        <v>-0.003296331758670008</v>
       </c>
       <c r="H6">
-        <v>-0.002391670929298205</v>
+        <v>-0.001627458772370445</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.0009414012250417591</v>
+        <v>-0.08929883267209572</v>
       </c>
       <c r="C7">
-        <v>0.001445458425334358</v>
+        <v>0.2443190569084035</v>
       </c>
       <c r="D7">
-        <v>-0.002108852870477115</v>
+        <v>-0.2857521801741603</v>
       </c>
       <c r="E7">
-        <v>-0.00217355440716292</v>
+        <v>-0.3860865271623956</v>
       </c>
       <c r="F7">
-        <v>-0.001862803173398633</v>
+        <v>-0.03049766047430906</v>
       </c>
       <c r="G7">
-        <v>-0.003097316151861577</v>
+        <v>-0.3275105648126054</v>
       </c>
       <c r="H7">
-        <v>-0.002226397716024139</v>
+        <v>0.03408879082784545</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,25 +582,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.001129286250512193</v>
+        <v>-3.897232841057814E-06</v>
       </c>
       <c r="C8">
-        <v>0.002201057618422161</v>
+        <v>0.002204648590947808</v>
       </c>
       <c r="D8">
-        <v>-0.001080072557364924</v>
+        <v>-0.001075722840394228</v>
       </c>
       <c r="E8">
-        <v>-0.003626815910939826</v>
+        <v>-0.002138867694003643</v>
       </c>
       <c r="F8">
-        <v>-0.001384790476619498</v>
+        <v>-0.001698664869086793</v>
       </c>
       <c r="G8">
-        <v>-0.00345612046197712</v>
+        <v>-0.002789732945178139</v>
       </c>
       <c r="H8">
-        <v>-0.001668983369382854</v>
+        <v>-0.001891605525932119</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -608,25 +608,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-3.773635737360801E-06</v>
+        <v>-0.0007971444870308752</v>
       </c>
       <c r="C9">
-        <v>0.002133955640123461</v>
+        <v>0.002106797201675977</v>
       </c>
       <c r="D9">
-        <v>-0.0007187501934895385</v>
+        <v>-0.0001859568626507721</v>
       </c>
       <c r="E9">
-        <v>-0.002312293624082781</v>
+        <v>-0.003090517515141795</v>
       </c>
       <c r="F9">
-        <v>-0.001165025816075044</v>
+        <v>-0.00176751761222055</v>
       </c>
       <c r="G9">
-        <v>-0.003156810054740653</v>
+        <v>-0.003233705372811545</v>
       </c>
       <c r="H9">
-        <v>-0.001256219724520194</v>
+        <v>-0.001338611393812544</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -634,25 +634,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.007450230759439621</v>
+        <v>-0.0008470546376287288</v>
       </c>
       <c r="C10">
-        <v>0.02195777933913563</v>
+        <v>0.001818106783945194</v>
       </c>
       <c r="D10">
-        <v>-0.004042076818543617</v>
+        <v>-0.001514502714707861</v>
       </c>
       <c r="E10">
-        <v>-0.01868493562761228</v>
+        <v>-0.002537326195198144</v>
       </c>
       <c r="F10">
-        <v>-0.00816633334553939</v>
+        <v>-0.001151827726738027</v>
       </c>
       <c r="G10">
-        <v>-0.03226766089816153</v>
+        <v>-0.003651230610452026</v>
       </c>
       <c r="H10">
-        <v>-0.01571049742839246</v>
+        <v>-0.002134605203251652</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -660,25 +660,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.000820325539836243</v>
+        <v>-4.820305897825133E-06</v>
       </c>
       <c r="C11">
-        <v>0.001626754544393367</v>
+        <v>0.002032101711954151</v>
       </c>
       <c r="D11">
-        <v>-0.001317496891833029</v>
+        <v>-0.00125749920133439</v>
       </c>
       <c r="E11">
-        <v>-0.002285773887535503</v>
+        <v>-0.003220109200137912</v>
       </c>
       <c r="F11">
-        <v>-0.001252171003370586</v>
+        <v>-0.001421724619480128</v>
       </c>
       <c r="G11">
-        <v>-0.003444686289250888</v>
+        <v>-0.00337997179394016</v>
       </c>
       <c r="H11">
-        <v>-0.001682065975904747</v>
+        <v>-0.001093730297359139</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -686,25 +686,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-4.027367507570537E-06</v>
+        <v>-0.06439214421786135</v>
       </c>
       <c r="C12">
-        <v>0.001886401528111347</v>
+        <v>0.4151723223569773</v>
       </c>
       <c r="D12">
-        <v>-0.00110959871653952</v>
+        <v>-0.267690696363575</v>
       </c>
       <c r="E12">
-        <v>-0.002145586182581277</v>
+        <v>-0.04332706474893171</v>
       </c>
       <c r="F12">
-        <v>-0.001191494653190162</v>
+        <v>-0.164188135486834</v>
       </c>
       <c r="G12">
-        <v>-0.003443529454496204</v>
+        <v>-0.307127101191272</v>
       </c>
       <c r="H12">
-        <v>-0.001488269436908984</v>
+        <v>-0.05146278003789316</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -712,25 +712,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-3.503348037887913E-06</v>
+        <v>-0.06540683981352029</v>
       </c>
       <c r="C13">
-        <v>0.001133975107660169</v>
+        <v>0.1868386665802452</v>
       </c>
       <c r="D13">
-        <v>-0.001560168441118893</v>
+        <v>-0.2247601703835526</v>
       </c>
       <c r="E13">
-        <v>-0.002418813515376362</v>
+        <v>-0.257132293187925</v>
       </c>
       <c r="F13">
-        <v>-0.001166766288112937</v>
+        <v>-0.1203122765780227</v>
       </c>
       <c r="G13">
-        <v>-0.002943203283309807</v>
+        <v>-0.2497477215068451</v>
       </c>
       <c r="H13">
-        <v>-0.0014329120748481</v>
+        <v>-0.0477254248010984</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -738,25 +738,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.09822336537422525</v>
+        <v>-8.292977406122497E-06</v>
       </c>
       <c r="C14">
-        <v>0.1909217862880288</v>
+        <v>0.001352423686791055</v>
       </c>
       <c r="D14">
-        <v>-0.2339062468059272</v>
+        <v>-0.0009934271116526922</v>
       </c>
       <c r="E14">
-        <v>-0.2764430076442441</v>
+        <v>-0.002463347887180193</v>
       </c>
       <c r="F14">
-        <v>-0.08934870726290634</v>
+        <v>-0.001354024072796341</v>
       </c>
       <c r="G14">
-        <v>-0.2752536135998944</v>
+        <v>-0.00322747624866909</v>
       </c>
       <c r="H14">
-        <v>-0.2757103258822752</v>
+        <v>-0.0007802405394059552</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -764,25 +764,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-3.14175127202071E-06</v>
+        <v>-0.00708774130157558</v>
       </c>
       <c r="C15">
-        <v>0.001720740302099693</v>
+        <v>0.01693843978367619</v>
       </c>
       <c r="D15">
-        <v>-0.001000487099766846</v>
+        <v>-0.009166292914434774</v>
       </c>
       <c r="E15">
-        <v>-0.001999027985444872</v>
+        <v>-0.02868697035575674</v>
       </c>
       <c r="F15">
-        <v>-0.0006212517419094466</v>
+        <v>-0.01874476924644895</v>
       </c>
       <c r="G15">
-        <v>-0.002837958003617539</v>
+        <v>-0.02643673095838383</v>
       </c>
       <c r="H15">
-        <v>-0.001736488713322828</v>
+        <v>-0.01512469499518507</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -790,25 +790,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.0009708682819586431</v>
+        <v>-3.864979274398221E-06</v>
       </c>
       <c r="C16">
-        <v>0.001879608436232922</v>
+        <v>0.001930379739190648</v>
       </c>
       <c r="D16">
-        <v>-0.001019319678446641</v>
+        <v>-0.001371594986102205</v>
       </c>
       <c r="E16">
-        <v>-0.002916938931826232</v>
+        <v>-0.00238892593304369</v>
       </c>
       <c r="F16">
-        <v>-0.001522397646634017</v>
+        <v>-0.001391053182294581</v>
       </c>
       <c r="G16">
-        <v>-0.003410675492086641</v>
+        <v>-0.003114738668046561</v>
       </c>
       <c r="H16">
-        <v>-0.001887348163794842</v>
+        <v>-0.001296850130965331</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -816,25 +816,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.0009449745404048213</v>
+        <v>-4.264698472243186E-06</v>
       </c>
       <c r="C17">
-        <v>0.001915183471192517</v>
+        <v>0.002161708302768302</v>
       </c>
       <c r="D17">
-        <v>-0.001675482001049052</v>
+        <v>-0.001480871207402227</v>
       </c>
       <c r="E17">
-        <v>-0.002380543274987801</v>
+        <v>-0.002966799998151669</v>
       </c>
       <c r="F17">
-        <v>-0.001524357830994765</v>
+        <v>-0.0009828741464733481</v>
       </c>
       <c r="G17">
-        <v>-0.003539663422796194</v>
+        <v>-0.002941010814259308</v>
       </c>
       <c r="H17">
-        <v>-0.001691765413524631</v>
+        <v>-0.001377364137398762</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -842,25 +842,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.001147267895972903</v>
+        <v>-3.167606526884257E-06</v>
       </c>
       <c r="C18">
-        <v>0.0019917686558221</v>
+        <v>0.0009710383343996484</v>
       </c>
       <c r="D18">
-        <v>-0.001812035420941491</v>
+        <v>-0.00205963097522131</v>
       </c>
       <c r="E18">
-        <v>-0.002475495529692867</v>
+        <v>-0.002167550853895876</v>
       </c>
       <c r="F18">
-        <v>-0.0007215400879558477</v>
+        <v>-7.064640800393325E-05</v>
       </c>
       <c r="G18">
-        <v>-0.004099246071878112</v>
+        <v>-0.003069693838838202</v>
       </c>
       <c r="H18">
-        <v>-0.002347147856976834</v>
+        <v>-0.0009365357470589779</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -868,25 +868,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-2.739606643756221E-06</v>
+        <v>-0.05376389650544606</v>
       </c>
       <c r="C19">
-        <v>0.001513204728777841</v>
+        <v>0.201935852784861</v>
       </c>
       <c r="D19">
-        <v>-0.0007268193210785536</v>
+        <v>-0.09370908005076788</v>
       </c>
       <c r="E19">
-        <v>-0.002008635796906619</v>
+        <v>-0.2257987649420797</v>
       </c>
       <c r="F19">
-        <v>-0.0006003724120355596</v>
+        <v>-0.1317657191481005</v>
       </c>
       <c r="G19">
-        <v>-0.00297825383145208</v>
+        <v>-0.2989411457323219</v>
       </c>
       <c r="H19">
-        <v>-0.0009194309417509366</v>
+        <v>-0.003127792778121634</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -894,25 +894,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-1.121419028851051E-05</v>
+        <v>-4.503212011446608E-06</v>
       </c>
       <c r="C20">
-        <v>0.001371197941110238</v>
+        <v>0.001858366850062792</v>
       </c>
       <c r="D20">
-        <v>-0.001854282938141522</v>
+        <v>-0.0006937477546323299</v>
       </c>
       <c r="E20">
-        <v>-0.002026869513801301</v>
+        <v>-0.003025053406292551</v>
       </c>
       <c r="F20">
-        <v>-0.00152864868873764</v>
+        <v>-0.001415862997800027</v>
       </c>
       <c r="G20">
-        <v>-0.003303869839199738</v>
+        <v>-0.003386365765419424</v>
       </c>
       <c r="H20">
-        <v>-0.001459937464319437</v>
+        <v>-0.001463837383025943</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -920,25 +920,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-1.006779191724277E-05</v>
+        <v>-0.0009463318933974343</v>
       </c>
       <c r="C21">
-        <v>0.001858808758570732</v>
+        <v>0.002332634290038274</v>
       </c>
       <c r="D21">
-        <v>-0.001384983364134166</v>
+        <v>-0.0009104425608980395</v>
       </c>
       <c r="E21">
-        <v>-0.002198751935897184</v>
+        <v>-0.003222723825953931</v>
       </c>
       <c r="F21">
-        <v>-0.001152690223819159</v>
+        <v>-0.001473082500965668</v>
       </c>
       <c r="G21">
-        <v>-0.003115264811495831</v>
+        <v>-0.003956132679570001</v>
       </c>
       <c r="H21">
-        <v>-0.001225639909299235</v>
+        <v>-0.001062901497560081</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -946,25 +946,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-3.212705859170181E-06</v>
+        <v>-2.569620348740298E-06</v>
       </c>
       <c r="C22">
-        <v>0.001699955558202242</v>
+        <v>0.001374645324195356</v>
       </c>
       <c r="D22">
-        <v>-0.001492809133677438</v>
+        <v>-0.00116126643024644</v>
       </c>
       <c r="E22">
-        <v>-0.001932461471242698</v>
+        <v>-0.001871992183392362</v>
       </c>
       <c r="F22">
-        <v>-0.0004460070732849297</v>
+        <v>-0.001513292580808797</v>
       </c>
       <c r="G22">
-        <v>-0.002615147522333808</v>
+        <v>-0.002403762783280583</v>
       </c>
       <c r="H22">
-        <v>-0.001990300655464656</v>
+        <v>-0.001251608726986293</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -972,25 +972,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.001111359403116071</v>
+        <v>-0.0008423162009754177</v>
       </c>
       <c r="C23">
-        <v>0.001872710661972225</v>
+        <v>0.001646248564160516</v>
       </c>
       <c r="D23">
-        <v>-0.001662806975376497</v>
+        <v>-0.001684698444448229</v>
       </c>
       <c r="E23">
-        <v>-0.002932836208898878</v>
+        <v>-0.00266999228397767</v>
       </c>
       <c r="F23">
-        <v>-0.0008004371833495835</v>
+        <v>-0.001756056725816325</v>
       </c>
       <c r="G23">
-        <v>-0.003913471014156207</v>
+        <v>-0.003300932152114627</v>
       </c>
       <c r="H23">
-        <v>-0.002053782839062065</v>
+        <v>-0.002101309736814294</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -998,25 +998,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-4.469275473382538E-06</v>
+        <v>-1.063103911766095E-05</v>
       </c>
       <c r="C24">
-        <v>0.0015365284050432</v>
+        <v>0.002462326775510283</v>
       </c>
       <c r="D24">
-        <v>-0.001750078611706287</v>
+        <v>-0.001310962333556389</v>
       </c>
       <c r="E24">
-        <v>-0.002629019403586196</v>
+        <v>-0.002854581245478088</v>
       </c>
       <c r="F24">
-        <v>-0.001419115346886205</v>
+        <v>-0.001080144270269243</v>
       </c>
       <c r="G24">
-        <v>-0.003162195663182827</v>
+        <v>-0.002867332490209279</v>
       </c>
       <c r="H24">
-        <v>-0.001807647694417859</v>
+        <v>-0.0008254161677954576</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1024,25 +1024,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-0.0008887984324546832</v>
+        <v>-1.367418236602017E-05</v>
       </c>
       <c r="C25">
-        <v>0.001193943127437541</v>
+        <v>0.002179952216603921</v>
       </c>
       <c r="D25">
-        <v>-0.00192820779091073</v>
+        <v>-0.0007935323006084621</v>
       </c>
       <c r="E25">
-        <v>-0.001571355483229714</v>
+        <v>-0.002661176725244273</v>
       </c>
       <c r="F25">
-        <v>-0.0009126146735280835</v>
+        <v>-0.001148130328005975</v>
       </c>
       <c r="G25">
-        <v>-0.00378648493459628</v>
+        <v>-0.003555901095090923</v>
       </c>
       <c r="H25">
-        <v>-0.002296503581651944</v>
+        <v>-0.001539473558500779</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1050,25 +1050,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.09184009343605212</v>
+        <v>-3.692415785978667E-06</v>
       </c>
       <c r="C26">
-        <v>0.3195625735031509</v>
+        <v>0.001543011619958089</v>
       </c>
       <c r="D26">
-        <v>-0.2583068115728764</v>
+        <v>-0.001412927773192689</v>
       </c>
       <c r="E26">
-        <v>0.009415516735372886</v>
+        <v>-0.002556928328555163</v>
       </c>
       <c r="F26">
-        <v>-0.09093306513641108</v>
+        <v>-0.0008774130548565126</v>
       </c>
       <c r="G26">
-        <v>-0.4335320827831602</v>
+        <v>-0.003127353031084524</v>
       </c>
       <c r="H26">
-        <v>-0.1827891718129316</v>
+        <v>-0.001438004061956787</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1076,25 +1076,25 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.0106714701786095</v>
+        <v>-3.416986073623166E-06</v>
       </c>
       <c r="C27">
-        <v>0.01565920322590562</v>
+        <v>0.001847332881695188</v>
       </c>
       <c r="D27">
-        <v>-0.0180828859816297</v>
+        <v>-0.001111546721856222</v>
       </c>
       <c r="E27">
-        <v>-0.02337928841456476</v>
+        <v>-0.002611644368901454</v>
       </c>
       <c r="F27">
-        <v>-0.01302894785484096</v>
+        <v>-4.936626146351735E-05</v>
       </c>
       <c r="G27">
-        <v>-0.03665062382672604</v>
+        <v>-0.002945408711583705</v>
       </c>
       <c r="H27">
-        <v>-0.02245179841610935</v>
+        <v>-0.001277119330238602</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1102,25 +1102,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.00106553472882587</v>
+        <v>-1.003946297323707E-05</v>
       </c>
       <c r="C28">
-        <v>0.00255918515714234</v>
+        <v>0.002268558842403856</v>
       </c>
       <c r="D28">
-        <v>-0.0008261564291128486</v>
+        <v>-0.001540769073036368</v>
       </c>
       <c r="E28">
-        <v>-0.002793332701762327</v>
+        <v>-0.002824543650672578</v>
       </c>
       <c r="F28">
-        <v>-0.0009483782365614844</v>
+        <v>-0.0005163720313964855</v>
       </c>
       <c r="G28">
-        <v>-0.003837780538981443</v>
+        <v>-0.002641684686357703</v>
       </c>
       <c r="H28">
-        <v>-0.001717724700495286</v>
+        <v>-0.001788524249194233</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1128,25 +1128,25 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-3.307535089450947E-06</v>
+        <v>-0.006164089684342153</v>
       </c>
       <c r="C29">
-        <v>0.001770293224528328</v>
+        <v>0.01671270272766624</v>
       </c>
       <c r="D29">
-        <v>-0.0005946658436426399</v>
+        <v>-0.01069539652563789</v>
       </c>
       <c r="E29">
-        <v>-0.002112774253992655</v>
+        <v>-0.02198583629678396</v>
       </c>
       <c r="F29">
-        <v>-0.0007758778949948447</v>
+        <v>-0.001925118483668568</v>
       </c>
       <c r="G29">
-        <v>-0.003027426160094382</v>
+        <v>-0.03260392056188915</v>
       </c>
       <c r="H29">
-        <v>-0.001648975132850768</v>
+        <v>-0.01399559699594585</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1154,25 +1154,25 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-0.0009617985705934441</v>
+        <v>-0.1153732116224811</v>
       </c>
       <c r="C30">
-        <v>0.001509072682027762</v>
+        <v>0.4796095442968893</v>
       </c>
       <c r="D30">
-        <v>-0.001784789325631745</v>
+        <v>-0.1692458871797554</v>
       </c>
       <c r="E30">
-        <v>-0.002285109680934861</v>
+        <v>-0.2864214555803345</v>
       </c>
       <c r="F30">
-        <v>-0.00109356231183312</v>
+        <v>-0.3153347924493162</v>
       </c>
       <c r="G30">
-        <v>-0.003641879673440699</v>
+        <v>-0.2456270086831475</v>
       </c>
       <c r="H30">
-        <v>-0.002275370052112611</v>
+        <v>-0.1223962767421122</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1180,25 +1180,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.001057538957727483</v>
+        <v>-2.499173043556904E-06</v>
       </c>
       <c r="C31">
-        <v>0.001546677928667305</v>
+        <v>0.001670062623948245</v>
       </c>
       <c r="D31">
-        <v>-0.001351368548309283</v>
+        <v>-0.000716376196762558</v>
       </c>
       <c r="E31">
-        <v>-0.002443183824742853</v>
+        <v>-0.002139593676597525</v>
       </c>
       <c r="F31">
-        <v>-0.002273916284782163</v>
+        <v>-0.0002449852241787888</v>
       </c>
       <c r="G31">
-        <v>-0.003604231233144112</v>
+        <v>-0.002671398981411846</v>
       </c>
       <c r="H31">
-        <v>-0.002242551838140961</v>
+        <v>-0.000922875949765192</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1206,25 +1206,25 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.005542577834948263</v>
+        <v>-3.658185247153806E-06</v>
       </c>
       <c r="C32">
-        <v>0.01060764511906108</v>
+        <v>0.001525169144747042</v>
       </c>
       <c r="D32">
-        <v>-0.01299055709925646</v>
+        <v>-0.001584641763442693</v>
       </c>
       <c r="E32">
-        <v>-0.01876028946294713</v>
+        <v>-0.002592063018487528</v>
       </c>
       <c r="F32">
-        <v>-0.01029731482544701</v>
+        <v>-0.001051844359957742</v>
       </c>
       <c r="G32">
-        <v>-0.0267755413572607</v>
+        <v>-0.003087541862964252</v>
       </c>
       <c r="H32">
-        <v>-0.01327287047623489</v>
+        <v>-0.001058145714121672</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1232,25 +1232,25 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-4.213832281192809E-06</v>
+        <v>-3.994624148201738E-06</v>
       </c>
       <c r="C33">
-        <v>0.001686427717460614</v>
+        <v>0.001979922259139921</v>
       </c>
       <c r="D33">
-        <v>-0.001049036310387737</v>
+        <v>-0.001236651137051925</v>
       </c>
       <c r="E33">
-        <v>-0.002798188596263378</v>
+        <v>-0.002711167750720129</v>
       </c>
       <c r="F33">
-        <v>-0.0008571429948864756</v>
+        <v>-0.001272714168088599</v>
       </c>
       <c r="G33">
-        <v>-0.003287444459246714</v>
+        <v>-0.003163251671930185</v>
       </c>
       <c r="H33">
-        <v>-0.001649708622901056</v>
+        <v>-0.001016621889456607</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1258,25 +1258,25 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-4.306547447897352E-06</v>
+        <v>-3.603578885845816E-06</v>
       </c>
       <c r="C34">
-        <v>0.001704838256361912</v>
+        <v>0.002213979735678004</v>
       </c>
       <c r="D34">
-        <v>-0.0007489532174451436</v>
+        <v>-0.000801073175077952</v>
       </c>
       <c r="E34">
-        <v>-0.003040959222062134</v>
+        <v>-0.002629270202147155</v>
       </c>
       <c r="F34">
-        <v>-0.0008634405009422453</v>
+        <v>-0.001655192937490868</v>
       </c>
       <c r="G34">
-        <v>-0.003180582491308702</v>
+        <v>-0.002604340015460526</v>
       </c>
       <c r="H34">
-        <v>-0.001741942156348041</v>
+        <v>-0.0009941435752355953</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1284,25 +1284,25 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-1.178693783398888E-05</v>
+        <v>-3.07272473874288E-06</v>
       </c>
       <c r="C35">
-        <v>0.001763303923531964</v>
+        <v>0.002359325979828846</v>
       </c>
       <c r="D35">
-        <v>-0.002092445010887641</v>
+        <v>-0.0008556475848937185</v>
       </c>
       <c r="E35">
-        <v>-0.002009356978046651</v>
+        <v>-0.00256135816816168</v>
       </c>
       <c r="F35">
-        <v>-0.001805299823021485</v>
+        <v>-0.0009878141849729524</v>
       </c>
       <c r="G35">
-        <v>-0.003324602080883954</v>
+        <v>-0.001958528620533023</v>
       </c>
       <c r="H35">
-        <v>-0.001692051622071704</v>
+        <v>-0.001383090244432562</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1310,25 +1310,25 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-1.191006272796044E-05</v>
+        <v>-1.021701398522325E-05</v>
       </c>
       <c r="C36">
-        <v>0.001626264256026266</v>
+        <v>0.002409841209391486</v>
       </c>
       <c r="D36">
-        <v>-0.001320950506544675</v>
+        <v>-0.001622628271812444</v>
       </c>
       <c r="E36">
-        <v>-0.00248595811568471</v>
+        <v>-0.002304581553849893</v>
       </c>
       <c r="F36">
-        <v>-0.001659494945977935</v>
+        <v>-0.001179015295124567</v>
       </c>
       <c r="G36">
-        <v>-0.003233052744706137</v>
+        <v>-0.003075618312970751</v>
       </c>
       <c r="H36">
-        <v>-0.001406356204778116</v>
+        <v>-0.001266575204862303</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1336,25 +1336,25 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-0.0008821330927419925</v>
+        <v>-1.154240318537927E-05</v>
       </c>
       <c r="C37">
-        <v>0.001498024927486852</v>
+        <v>0.001590450378860189</v>
       </c>
       <c r="D37">
-        <v>-0.001411273848587902</v>
+        <v>-0.002120303741697026</v>
       </c>
       <c r="E37">
-        <v>-0.002266306565330646</v>
+        <v>-0.002103041169413607</v>
       </c>
       <c r="F37">
-        <v>-0.001651819537941008</v>
+        <v>-0.00103378802386448</v>
       </c>
       <c r="G37">
-        <v>-0.003696477694098838</v>
+        <v>-0.003293546024204943</v>
       </c>
       <c r="H37">
-        <v>-0.001439561795826647</v>
+        <v>-0.001791875135124312</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1362,25 +1362,25 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-0.06881028197239367</v>
+        <v>-0.04246624355154176</v>
       </c>
       <c r="C38">
-        <v>0.1728591259927227</v>
+        <v>0.1374654627550816</v>
       </c>
       <c r="D38">
-        <v>-0.1033356810115539</v>
+        <v>-0.05548123577063911</v>
       </c>
       <c r="E38">
-        <v>-0.1398337624478965</v>
+        <v>-0.1590611657425309</v>
       </c>
       <c r="F38">
-        <v>-0.08538906329210487</v>
+        <v>-0.05151836961127869</v>
       </c>
       <c r="G38">
-        <v>-0.1991221597037728</v>
+        <v>-0.1642378524202189</v>
       </c>
       <c r="H38">
-        <v>-0.113004042042649</v>
+        <v>-0.07526693048945651</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1388,25 +1388,25 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.006803201275007395</v>
+        <v>-3.202684665670759E-06</v>
       </c>
       <c r="C39">
-        <v>0.006908391225581408</v>
+        <v>0.001245349816030296</v>
       </c>
       <c r="D39">
-        <v>-0.01994531002226873</v>
+        <v>-0.001480328633974038</v>
       </c>
       <c r="E39">
-        <v>-0.02030225424679256</v>
+        <v>-0.002121637706510397</v>
       </c>
       <c r="F39">
-        <v>-0.002361705429313378</v>
+        <v>-0.0009754642520261875</v>
       </c>
       <c r="G39">
-        <v>-0.02996428797105802</v>
+        <v>-0.003106047995434862</v>
       </c>
       <c r="H39">
-        <v>-0.01594885728767462</v>
+        <v>-0.001252646791634342</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1414,25 +1414,25 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-0.001205252397677572</v>
+        <v>-0.0009161107748454165</v>
       </c>
       <c r="C40">
-        <v>0.00203368148981552</v>
+        <v>0.002392246630444381</v>
       </c>
       <c r="D40">
-        <v>-0.001868193574088139</v>
+        <v>-0.001139353771622923</v>
       </c>
       <c r="E40">
-        <v>-0.003267122414673227</v>
+        <v>-0.003689604710194445</v>
       </c>
       <c r="F40">
-        <v>-0.001975684844996796</v>
+        <v>-0.001649240018911319</v>
       </c>
       <c r="G40">
-        <v>-0.003289082151652852</v>
+        <v>-0.003075774560789934</v>
       </c>
       <c r="H40">
-        <v>-0.002228679131037235</v>
+        <v>-0.001252700642342209</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1440,25 +1440,25 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-3.590883756103362E-06</v>
+        <v>-3.346938047769324E-06</v>
       </c>
       <c r="C41">
-        <v>0.0009301445447085581</v>
+        <v>0.002095157726823074</v>
       </c>
       <c r="D41">
-        <v>-0.001817661168072707</v>
+        <v>-0.001145922054612024</v>
       </c>
       <c r="E41">
-        <v>-0.002370073508266626</v>
+        <v>-0.002729616175343127</v>
       </c>
       <c r="F41">
-        <v>-0.0006624267096707551</v>
+        <v>-0.001700550936324942</v>
       </c>
       <c r="G41">
-        <v>-0.003078218779311423</v>
+        <v>-0.002163643437174326</v>
       </c>
       <c r="H41">
-        <v>-0.001577370595944708</v>
+        <v>-0.0007774111047632854</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1466,25 +1466,25 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.007708203181120166</v>
+        <v>-3.802381983230547E-06</v>
       </c>
       <c r="C42">
-        <v>0.01713928263491852</v>
+        <v>0.001751242285645331</v>
       </c>
       <c r="D42">
-        <v>-0.008340910734506535</v>
+        <v>-0.001194765142824775</v>
       </c>
       <c r="E42">
-        <v>-0.01975702816018609</v>
+        <v>-0.003447601956861011</v>
       </c>
       <c r="F42">
-        <v>-0.01757386111212517</v>
+        <v>-0.0009125121147570633</v>
       </c>
       <c r="G42">
-        <v>-0.03097971526448777</v>
+        <v>-0.002559953039959338</v>
       </c>
       <c r="H42">
-        <v>-0.01580108545027051</v>
+        <v>-0.000683888548203432</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1492,25 +1492,25 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.1758100398120272</v>
+        <v>-4.186406030085549E-06</v>
       </c>
       <c r="C43">
-        <v>0.7407410302255603</v>
+        <v>0.001640655884869388</v>
       </c>
       <c r="D43">
-        <v>-0.3003053403964821</v>
+        <v>-0.00184861769669305</v>
       </c>
       <c r="E43">
-        <v>0.09927465195149755</v>
+        <v>-0.002536002913890859</v>
       </c>
       <c r="F43">
-        <v>-0.1007172691987569</v>
+        <v>-0.001534032136002569</v>
       </c>
       <c r="G43">
-        <v>-0.6242550436408488</v>
+        <v>-0.003110384441710357</v>
       </c>
       <c r="H43">
-        <v>-0.2751006933965743</v>
+        <v>-0.001453740713578254</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1518,25 +1518,25 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-4.203610574719994E-06</v>
+        <v>-0.008051921723054807</v>
       </c>
       <c r="C44">
-        <v>0.001939775198161262</v>
+        <v>0.01407908721781096</v>
       </c>
       <c r="D44">
-        <v>-0.0009102207303448899</v>
+        <v>-0.01120000863531817</v>
       </c>
       <c r="E44">
-        <v>-0.002417463381320379</v>
+        <v>-0.02849125009674906</v>
       </c>
       <c r="F44">
-        <v>-0.001144106014709327</v>
+        <v>-0.008782514298141345</v>
       </c>
       <c r="G44">
-        <v>-0.003307371675255092</v>
+        <v>-0.03297946430379761</v>
       </c>
       <c r="H44">
-        <v>-0.001814321531456851</v>
+        <v>-0.02174863894121085</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1544,25 +1544,25 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-8.861908831521839E-06</v>
+        <v>-3.417304406663466E-06</v>
       </c>
       <c r="C45">
-        <v>0.0006446253406117405</v>
+        <v>0.002249701641942554</v>
       </c>
       <c r="D45">
-        <v>-0.001434322287926195</v>
+        <v>-0.00105845159143318</v>
       </c>
       <c r="E45">
-        <v>-0.001773661802819514</v>
+        <v>-0.002380475551896411</v>
       </c>
       <c r="F45">
-        <v>-0.0006144417671112538</v>
+        <v>-0.001519275058234623</v>
       </c>
       <c r="G45">
-        <v>-0.003558941079662291</v>
+        <v>-0.002493789203732764</v>
       </c>
       <c r="H45">
-        <v>-0.001683282789666243</v>
+        <v>-0.00118507275991152</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1570,25 +1570,25 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-4.738413459546537E-06</v>
+        <v>-0.03850452658453937</v>
       </c>
       <c r="C46">
-        <v>0.001838844915811418</v>
+        <v>0.1362988160410546</v>
       </c>
       <c r="D46">
-        <v>-0.001661854930096233</v>
+        <v>-0.04431070240368848</v>
       </c>
       <c r="E46">
-        <v>-0.003034748045273775</v>
+        <v>-0.1499418229289748</v>
       </c>
       <c r="F46">
-        <v>-0.0005900169251343936</v>
+        <v>-0.03546638839395196</v>
       </c>
       <c r="G46">
-        <v>-0.003341174535481068</v>
+        <v>-0.1546918894877552</v>
       </c>
       <c r="H46">
-        <v>-0.001554021576974499</v>
+        <v>-0.0723472115022997</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1596,25 +1596,25 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-0.0008986620408251531</v>
+        <v>-1.1818520615018E-05</v>
       </c>
       <c r="C47">
-        <v>0.00171738809702928</v>
+        <v>0.001913888802244423</v>
       </c>
       <c r="D47">
-        <v>-0.001499251672458097</v>
+        <v>-0.002055758764024417</v>
       </c>
       <c r="E47">
-        <v>-0.002462441245227808</v>
+        <v>-0.003120930085741778</v>
       </c>
       <c r="F47">
-        <v>-0.0006598323610998592</v>
+        <v>-0.001166907442822306</v>
       </c>
       <c r="G47">
-        <v>-0.003653132949757006</v>
+        <v>-0.003010912774291467</v>
       </c>
       <c r="H47">
-        <v>-0.001822434830821233</v>
+        <v>-0.0007418193418245151</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1622,25 +1622,25 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.1156681212489442</v>
+        <v>-3.181214938717821E-06</v>
       </c>
       <c r="C48">
-        <v>0.2253859300496115</v>
+        <v>0.001844289451993751</v>
       </c>
       <c r="D48">
-        <v>-0.2566410305724362</v>
+        <v>-0.001044752560803339</v>
       </c>
       <c r="E48">
-        <v>-0.09076516989096131</v>
+        <v>-0.002391946544592551</v>
       </c>
       <c r="F48">
-        <v>-0.1261394844987681</v>
+        <v>-0.0007308015609791806</v>
       </c>
       <c r="G48">
-        <v>-0.6461214176420924</v>
+        <v>-0.00289785968720447</v>
       </c>
       <c r="H48">
-        <v>-0.04815468892396913</v>
+        <v>-0.001062602773781398</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1648,25 +1648,25 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-3.703206130847806E-06</v>
+        <v>-0.0008237657762544393</v>
       </c>
       <c r="C49">
-        <v>0.00117819859187269</v>
+        <v>0.002319474283211108</v>
       </c>
       <c r="D49">
-        <v>-0.001601609826668155</v>
+        <v>-0.001406455151998353</v>
       </c>
       <c r="E49">
-        <v>-0.002087977786154739</v>
+        <v>-0.002905844368647484</v>
       </c>
       <c r="F49">
-        <v>-0.0007007497124163225</v>
+        <v>-0.0009482316868956478</v>
       </c>
       <c r="G49">
-        <v>-0.003364042017422575</v>
+        <v>-0.003271398406302465</v>
       </c>
       <c r="H49">
-        <v>-0.001661896995675367</v>
+        <v>-0.001755038986641546</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1674,25 +1674,25 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-3.795171566587838E-06</v>
+        <v>-3.345168020231821E-06</v>
       </c>
       <c r="C50">
-        <v>0.002241231605670539</v>
+        <v>0.001115551292199213</v>
       </c>
       <c r="D50">
-        <v>-9.942941226849038E-05</v>
+        <v>-0.001972555763422246</v>
       </c>
       <c r="E50">
-        <v>-0.002569494101407531</v>
+        <v>-0.002012360046344043</v>
       </c>
       <c r="F50">
-        <v>-0.0004993996109229186</v>
+        <v>-0.0004033173950231087</v>
       </c>
       <c r="G50">
-        <v>-0.002787755019607441</v>
+        <v>-0.003100916277871694</v>
       </c>
       <c r="H50">
-        <v>-0.001948014078010703</v>
+        <v>-0.001535153750402459</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1700,25 +1700,25 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-0.001040604545376188</v>
+        <v>-1.231389352960855E-05</v>
       </c>
       <c r="C51">
-        <v>0.00245756945984262</v>
+        <v>0.002721534752334664</v>
       </c>
       <c r="D51">
-        <v>-0.001413657247217908</v>
+        <v>-0.001306097645699901</v>
       </c>
       <c r="E51">
-        <v>-0.002706577087771454</v>
+        <v>-0.003081026216855159</v>
       </c>
       <c r="F51">
-        <v>-0.001550817089492007</v>
+        <v>-0.001271662977141975</v>
       </c>
       <c r="G51">
-        <v>-0.00322712218571324</v>
+        <v>-0.002514011215055009</v>
       </c>
       <c r="H51">
-        <v>-0.002150410855304763</v>
+        <v>-0.0009219579024873595</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1726,25 +1726,25 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-0.006706569313332178</v>
+        <v>-0.006054123844954277</v>
       </c>
       <c r="C52">
-        <v>0.01557164124212655</v>
+        <v>0.01562287336585994</v>
       </c>
       <c r="D52">
-        <v>-0.006740572307710683</v>
+        <v>-0.01127280464056381</v>
       </c>
       <c r="E52">
-        <v>-0.0198844991316054</v>
+        <v>-0.02707900629733467</v>
       </c>
       <c r="F52">
-        <v>-0.003793877303479147</v>
+        <v>-0.01242863843640818</v>
       </c>
       <c r="G52">
-        <v>-0.03128867179702374</v>
+        <v>-0.02636660657603278</v>
       </c>
       <c r="H52">
-        <v>-0.01749414691445162</v>
+        <v>-0.01183902010545941</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1752,25 +1752,25 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-4.410921432413859E-06</v>
+        <v>-0.0008337301939363808</v>
       </c>
       <c r="C53">
-        <v>0.002217397534171294</v>
+        <v>0.001643189205904618</v>
       </c>
       <c r="D53">
-        <v>-0.001134520383007342</v>
+        <v>-0.001715895020379517</v>
       </c>
       <c r="E53">
-        <v>-0.002635626491512979</v>
+        <v>-0.002570115636018104</v>
       </c>
       <c r="F53">
-        <v>-0.000995785558392476</v>
+        <v>-0.002005527294676562</v>
       </c>
       <c r="G53">
-        <v>-0.003274687275554517</v>
+        <v>-0.003377694388172352</v>
       </c>
       <c r="H53">
-        <v>-0.001545991666341599</v>
+        <v>-0.001773892659096445</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1778,25 +1778,25 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>-0.03908021961374811</v>
+        <v>-0.004921299875075487</v>
       </c>
       <c r="C54">
-        <v>0.1087252617196836</v>
+        <v>0.01553963837410351</v>
       </c>
       <c r="D54">
-        <v>-0.1016990920528101</v>
+        <v>-0.007870773759411627</v>
       </c>
       <c r="E54">
-        <v>-0.08674637424902852</v>
+        <v>-0.01975164928474048</v>
       </c>
       <c r="F54">
-        <v>-0.0431429983288406</v>
+        <v>-0.006876721154007209</v>
       </c>
       <c r="G54">
-        <v>-0.1619622485813358</v>
+        <v>-0.02891534034854687</v>
       </c>
       <c r="H54">
-        <v>-0.1004492397865436</v>
+        <v>-0.0112490945972993</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1804,25 +1804,25 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-0.008200774040607685</v>
+        <v>-3.835990705342277E-06</v>
       </c>
       <c r="C55">
-        <v>0.02029141565352254</v>
+        <v>0.001902340103026028</v>
       </c>
       <c r="D55">
-        <v>-0.009747195938415273</v>
+        <v>-0.001001294621821677</v>
       </c>
       <c r="E55">
-        <v>-0.01831486782203115</v>
+        <v>-0.002988021429937704</v>
       </c>
       <c r="F55">
-        <v>-0.008200114254076619</v>
+        <v>-0.001276913338258822</v>
       </c>
       <c r="G55">
-        <v>-0.03680936212031218</v>
+        <v>-0.002559562256903546</v>
       </c>
       <c r="H55">
-        <v>-0.01243116684723524</v>
+        <v>-0.001648219914756754</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1830,25 +1830,25 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-0.000876354103939371</v>
+        <v>-0.000849474346330758</v>
       </c>
       <c r="C56">
-        <v>0.002117737931358925</v>
+        <v>0.001881875782551707</v>
       </c>
       <c r="D56">
-        <v>-0.001092950342489756</v>
+        <v>-0.001974717131071292</v>
       </c>
       <c r="E56">
-        <v>-0.00226611513055584</v>
+        <v>-0.002675683741388034</v>
       </c>
       <c r="F56">
-        <v>-0.0005473490083761866</v>
+        <v>-0.0008762408356726721</v>
       </c>
       <c r="G56">
-        <v>-0.003575388571364838</v>
+        <v>-0.003776765642755144</v>
       </c>
       <c r="H56">
-        <v>-0.001940538200104141</v>
+        <v>-0.001315005070600855</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1856,25 +1856,25 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-0.006777302174616031</v>
+        <v>-0.09598765168041505</v>
       </c>
       <c r="C57">
-        <v>0.02133501632398326</v>
+        <v>0.2288284882621922</v>
       </c>
       <c r="D57">
-        <v>-0.009729127231919021</v>
+        <v>-0.2376027314313834</v>
       </c>
       <c r="E57">
-        <v>-0.01869123602022909</v>
+        <v>-0.3654930472274147</v>
       </c>
       <c r="F57">
-        <v>-0.01000567948710212</v>
+        <v>-0.004807479078939096</v>
       </c>
       <c r="G57">
-        <v>-0.02791937582273552</v>
+        <v>-0.2849390429453649</v>
       </c>
       <c r="H57">
-        <v>-0.01505614296047112</v>
+        <v>0.03949424824702953</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1882,25 +1882,25 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-0.04954475259313302</v>
+        <v>-3.486785819391142E-06</v>
       </c>
       <c r="C58">
-        <v>0.08193029920417497</v>
+        <v>0.001514597251547665</v>
       </c>
       <c r="D58">
-        <v>-0.07760980054893414</v>
+        <v>-0.001371313456340769</v>
       </c>
       <c r="E58">
-        <v>-0.1265700504329866</v>
+        <v>-0.002686073249114912</v>
       </c>
       <c r="F58">
-        <v>-0.08300074933692503</v>
+        <v>-0.0008007795922604698</v>
       </c>
       <c r="G58">
-        <v>-0.1911804114585987</v>
+        <v>-0.002904059631220807</v>
       </c>
       <c r="H58">
-        <v>-0.1097050090436291</v>
+        <v>-0.001326020201101601</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1908,25 +1908,25 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-0.09704020969386339</v>
+        <v>-0.0753687000514074</v>
       </c>
       <c r="C59">
-        <v>0.3317195900173199</v>
+        <v>0.2107209100730107</v>
       </c>
       <c r="D59">
-        <v>-0.1362050262139558</v>
+        <v>-0.1526112647043911</v>
       </c>
       <c r="E59">
-        <v>-0.2228125174460517</v>
+        <v>-0.2133981343658203</v>
       </c>
       <c r="F59">
-        <v>-0.1728647608893785</v>
+        <v>-0.1256974441692352</v>
       </c>
       <c r="G59">
-        <v>-0.2757289000945017</v>
+        <v>-0.3234475213919968</v>
       </c>
       <c r="H59">
-        <v>-0.2389499931453834</v>
+        <v>-0.05884115700017775</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1934,25 +1934,25 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-3.842187511604108E-06</v>
+        <v>-0.03158751593610537</v>
       </c>
       <c r="C60">
-        <v>0.001201517188975546</v>
+        <v>0.1264644144158907</v>
       </c>
       <c r="D60">
-        <v>-0.001318953487228041</v>
+        <v>-0.07869776803755918</v>
       </c>
       <c r="E60">
-        <v>-0.002080229865145012</v>
+        <v>-0.1374661052338759</v>
       </c>
       <c r="F60">
-        <v>-0.001373394520074748</v>
+        <v>-0.04440658122198717</v>
       </c>
       <c r="G60">
-        <v>-0.003392069677513748</v>
+        <v>-0.1315644855403141</v>
       </c>
       <c r="H60">
-        <v>-0.001684792001422613</v>
+        <v>-0.03505676627922982</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1960,25 +1960,25 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-0.009070181510809778</v>
+        <v>-0.1157731218177319</v>
       </c>
       <c r="C61">
-        <v>0.01517814526345258</v>
+        <v>0.371216598979242</v>
       </c>
       <c r="D61">
-        <v>-0.009322231339055407</v>
+        <v>-0.2180978836541943</v>
       </c>
       <c r="E61">
-        <v>-0.02405165789165231</v>
+        <v>-0.3629272938631752</v>
       </c>
       <c r="F61">
-        <v>-0.01772526524208419</v>
+        <v>-0.01941836168602062</v>
       </c>
       <c r="G61">
-        <v>-0.03121205953149749</v>
+        <v>-0.4299948364963875</v>
       </c>
       <c r="H61">
-        <v>-0.02198760884898293</v>
+        <v>-0.06641070563457344</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1986,25 +1986,25 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-0.04705450562088457</v>
+        <v>-3.162996998593145E-06</v>
       </c>
       <c r="C62">
-        <v>0.09709929761088439</v>
+        <v>0.0019068925044464</v>
       </c>
       <c r="D62">
-        <v>-0.07952942535243887</v>
+        <v>-0.001045760767965889</v>
       </c>
       <c r="E62">
-        <v>-0.0839849310376734</v>
+        <v>-0.002283630813604367</v>
       </c>
       <c r="F62">
-        <v>-0.08384755252680318</v>
+        <v>-0.001483341235512232</v>
       </c>
       <c r="G62">
-        <v>-0.1954626544401829</v>
+        <v>-0.002574546580199871</v>
       </c>
       <c r="H62">
-        <v>-0.1211847349082904</v>
+        <v>-0.001177103764482725</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2012,25 +2012,25 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-0.0008959280929715851</v>
+        <v>-1.285703414821664E-05</v>
       </c>
       <c r="C63">
-        <v>0.002273579291488794</v>
+        <v>0.002289168892078698</v>
       </c>
       <c r="D63">
-        <v>-0.0008080306345895165</v>
+        <v>-0.0009998597963062959</v>
       </c>
       <c r="E63">
-        <v>-0.002705520502673202</v>
+        <v>-0.00270274062990338</v>
       </c>
       <c r="F63">
-        <v>-0.0005265739823503098</v>
+        <v>-0.001835674948534963</v>
       </c>
       <c r="G63">
-        <v>-0.003458369736588702</v>
+        <v>-0.002854163749152349</v>
       </c>
       <c r="H63">
-        <v>-0.00169599337357584</v>
+        <v>-0.001735021913229731</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2038,25 +2038,25 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-0.007586763036964753</v>
+        <v>-1.092823515922823E-05</v>
       </c>
       <c r="C64">
-        <v>0.02482989257469995</v>
+        <v>0.002177945448053502</v>
       </c>
       <c r="D64">
-        <v>-0.01283347270608493</v>
+        <v>-0.001170511884130006</v>
       </c>
       <c r="E64">
-        <v>-0.02154151097612427</v>
+        <v>-0.002410559286620833</v>
       </c>
       <c r="F64">
-        <v>-0.004951185131108647</v>
+        <v>-0.00190733451534059</v>
       </c>
       <c r="G64">
-        <v>-0.02829261203802918</v>
+        <v>-0.003080997050065194</v>
       </c>
       <c r="H64">
-        <v>-0.01279126747463067</v>
+        <v>-0.001375119387084086</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2064,25 +2064,25 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-1.276430757659951E-05</v>
+        <v>-2.919364611156078E-06</v>
       </c>
       <c r="C65">
-        <v>0.00145116568858908</v>
+        <v>0.001664573933533438</v>
       </c>
       <c r="D65">
-        <v>-0.0009561897957693719</v>
+        <v>-0.001291910907117592</v>
       </c>
       <c r="E65">
-        <v>-0.002440743134553322</v>
+        <v>-0.002300001444405089</v>
       </c>
       <c r="F65">
-        <v>-0.001133097309064795</v>
+        <v>-0.001300192020969637</v>
       </c>
       <c r="G65">
-        <v>-0.003574991091612563</v>
+        <v>-0.002457057835589565</v>
       </c>
       <c r="H65">
-        <v>-0.00161773247484927</v>
+        <v>-0.001071792312466176</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2090,25 +2090,25 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-0.2018630652847865</v>
+        <v>-0.09703989111569812</v>
       </c>
       <c r="C66">
-        <v>0.4512297795792177</v>
+        <v>0.5332127923560536</v>
       </c>
       <c r="D66">
-        <v>-0.04886213497924211</v>
+        <v>-0.2262409697778785</v>
       </c>
       <c r="E66">
-        <v>-0.2586959115730771</v>
+        <v>-0.1189490859026357</v>
       </c>
       <c r="F66">
-        <v>-0.2186397616547113</v>
+        <v>0.01955828801976509</v>
       </c>
       <c r="G66">
-        <v>-0.8446853433493368</v>
+        <v>-0.3643935730781427</v>
       </c>
       <c r="H66">
-        <v>-0.04369633732818284</v>
+        <v>-0.1967536658783146</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2116,25 +2116,25 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>-0.001180276289676673</v>
+        <v>-0.09820003314505861</v>
       </c>
       <c r="C67">
-        <v>0.002318102250560134</v>
+        <v>0.3048496847983708</v>
       </c>
       <c r="D67">
-        <v>-0.00197508181871506</v>
+        <v>-0.355322396184977</v>
       </c>
       <c r="E67">
-        <v>-0.003112181948852556</v>
+        <v>-0.2721750174891774</v>
       </c>
       <c r="F67">
-        <v>-0.001562574060809296</v>
+        <v>-0.1707810899642485</v>
       </c>
       <c r="G67">
-        <v>-0.003396946882253163</v>
+        <v>-0.3323664086490987</v>
       </c>
       <c r="H67">
-        <v>-0.002070649689326321</v>
+        <v>-0.1100359860442975</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2142,25 +2142,25 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-0.009307657265428182</v>
+        <v>-4.201361485030058E-06</v>
       </c>
       <c r="C68">
-        <v>0.01712138876318495</v>
+        <v>0.001705900995704598</v>
       </c>
       <c r="D68">
-        <v>-0.01219457854391908</v>
+        <v>-0.001588453950067379</v>
       </c>
       <c r="E68">
-        <v>-0.02364029824895271</v>
+        <v>-0.002750942428053225</v>
       </c>
       <c r="F68">
-        <v>-0.006987069253837724</v>
+        <v>-0.001095396422221048</v>
       </c>
       <c r="G68">
-        <v>-0.03354246285954458</v>
+        <v>-0.003192408039231225</v>
       </c>
       <c r="H68">
-        <v>-0.02369303043955124</v>
+        <v>-0.001544193290383142</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2168,25 +2168,25 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-3.048494294204215E-06</v>
+        <v>-3.605369643892157E-06</v>
       </c>
       <c r="C69">
-        <v>0.001993239224171947</v>
+        <v>0.001709883787704614</v>
       </c>
       <c r="D69">
-        <v>-0.000270319649212328</v>
+        <v>-0.001166595508228376</v>
       </c>
       <c r="E69">
-        <v>-0.002000912106084777</v>
+        <v>-0.002795907420928923</v>
       </c>
       <c r="F69">
-        <v>-0.0006061804934331377</v>
+        <v>-0.001836854581442885</v>
       </c>
       <c r="G69">
-        <v>-0.002868086860486909</v>
+        <v>-0.002667011668358581</v>
       </c>
       <c r="H69">
-        <v>-0.001481218876970239</v>
+        <v>-0.0006242370104814602</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2194,25 +2194,25 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>-0.0008993992174310241</v>
+        <v>-0.07953768328623274</v>
       </c>
       <c r="C70">
-        <v>0.001509034704277624</v>
+        <v>0.4314264855107797</v>
       </c>
       <c r="D70">
-        <v>-0.001693217594175528</v>
+        <v>-0.2451189871183736</v>
       </c>
       <c r="E70">
-        <v>-0.002510926475487266</v>
+        <v>-0.04961873434872441</v>
       </c>
       <c r="F70">
-        <v>-0.001067964917113105</v>
+        <v>-0.2363213808057261</v>
       </c>
       <c r="G70">
-        <v>-0.003039570787454733</v>
+        <v>-0.3423521209095096</v>
       </c>
       <c r="H70">
-        <v>-0.002560579317154577</v>
+        <v>-0.05975480899896466</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2220,25 +2220,25 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>-4.227051037665495E-06</v>
+        <v>-1.243745563673377E-05</v>
       </c>
       <c r="C71">
-        <v>0.002056953831258032</v>
+        <v>0.001787204151694863</v>
       </c>
       <c r="D71">
-        <v>-0.0006406686843120087</v>
+        <v>-0.0006959441110109728</v>
       </c>
       <c r="E71">
-        <v>-0.002515042922846478</v>
+        <v>-0.002387127024709468</v>
       </c>
       <c r="F71">
-        <v>-0.00135549491915608</v>
+        <v>-0.001097834988130166</v>
       </c>
       <c r="G71">
-        <v>-0.003282104300531382</v>
+        <v>-0.00356587793106431</v>
       </c>
       <c r="H71">
-        <v>-0.001594713234238014</v>
+        <v>-0.00304776911436918</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2246,25 +2246,25 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-0.1684200845929607</v>
+        <v>-0.00881457170240839</v>
       </c>
       <c r="C72">
-        <v>0.4691317947645805</v>
+        <v>0.01953692068091411</v>
       </c>
       <c r="D72">
-        <v>-0.192053140721024</v>
+        <v>-0.01699012801704495</v>
       </c>
       <c r="E72">
-        <v>-0.1229778910756774</v>
+        <v>-0.02623845884629492</v>
       </c>
       <c r="F72">
-        <v>-0.3146172689999016</v>
+        <v>-0.01210390347852826</v>
       </c>
       <c r="G72">
-        <v>-0.7977419906004249</v>
+        <v>-0.03592822207317825</v>
       </c>
       <c r="H72">
-        <v>0.2766328140452125</v>
+        <v>-0.0164139797431943</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2272,25 +2272,25 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>-3.591608210962702E-06</v>
+        <v>-8.32312005599767E-06</v>
       </c>
       <c r="C73">
-        <v>0.001279183128081963</v>
+        <v>0.00162608657845594</v>
       </c>
       <c r="D73">
-        <v>-0.001261231287895223</v>
+        <v>-0.000929357610878413</v>
       </c>
       <c r="E73">
-        <v>-0.002099470996624546</v>
+        <v>-0.002339969991183207</v>
       </c>
       <c r="F73">
-        <v>-0.0009691142365672903</v>
+        <v>-0.002173148742483473</v>
       </c>
       <c r="G73">
-        <v>-0.003286281550215796</v>
+        <v>-0.002714064226977903</v>
       </c>
       <c r="H73">
-        <v>-0.001679136582828891</v>
+        <v>-0.0007913730000742921</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2298,25 +2298,25 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-0.04237066821485267</v>
+        <v>-0.007112392269014088</v>
       </c>
       <c r="C74">
-        <v>0.08622027737301864</v>
+        <v>0.01875994354721653</v>
       </c>
       <c r="D74">
-        <v>-0.09932521268150786</v>
+        <v>-0.01969536248194854</v>
       </c>
       <c r="E74">
-        <v>-0.1298638399883369</v>
+        <v>-0.02856003836099162</v>
       </c>
       <c r="F74">
-        <v>-0.07719055010499287</v>
+        <v>-0.01488101745227177</v>
       </c>
       <c r="G74">
-        <v>-0.156730852493804</v>
+        <v>-0.02378285719433308</v>
       </c>
       <c r="H74">
-        <v>-0.09043335795845464</v>
+        <v>-0.01153122514138061</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2324,25 +2324,25 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-3.461720869204897E-06</v>
+        <v>-0.0007898000820419993</v>
       </c>
       <c r="C75">
-        <v>0.001559272868229995</v>
+        <v>0.002173233295195306</v>
       </c>
       <c r="D75">
-        <v>-0.001616434184236691</v>
+        <v>-0.001368039670284392</v>
       </c>
       <c r="E75">
-        <v>-0.002421456118374354</v>
+        <v>-0.002439492873565538</v>
       </c>
       <c r="F75">
-        <v>-0.0008776403025344055</v>
+        <v>-0.0004484140177285064</v>
       </c>
       <c r="G75">
-        <v>-0.003015818281754221</v>
+        <v>-0.003663986728975961</v>
       </c>
       <c r="H75">
-        <v>-0.0007857484305782595</v>
+        <v>-0.001720972430008917</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2350,25 +2350,25 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>-7.304177948953839E-06</v>
+        <v>-3.657251736361214E-06</v>
       </c>
       <c r="C76">
-        <v>0.002293454265170802</v>
+        <v>0.002358062907856604</v>
       </c>
       <c r="D76">
-        <v>-0.00128847152825818</v>
+        <v>-0.001239155813461517</v>
       </c>
       <c r="E76">
-        <v>-0.001915587344096235</v>
+        <v>-0.002544846526483484</v>
       </c>
       <c r="F76">
-        <v>-0.001018133397249263</v>
+        <v>-0.001532873281765406</v>
       </c>
       <c r="G76">
-        <v>-0.002298239302125523</v>
+        <v>-0.002487394014330828</v>
       </c>
       <c r="H76">
-        <v>-0.001413086134773824</v>
+        <v>-0.001095463346908601</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2376,25 +2376,25 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>-0.009085702871053009</v>
+        <v>-0.06453899132385259</v>
       </c>
       <c r="C77">
-        <v>0.0173026675107934</v>
+        <v>0.1748770589083559</v>
       </c>
       <c r="D77">
-        <v>-0.01834112365207369</v>
+        <v>-0.1960161789915656</v>
       </c>
       <c r="E77">
-        <v>-0.02831371987274393</v>
+        <v>-0.240885276230201</v>
       </c>
       <c r="F77">
-        <v>-0.009030535629402989</v>
+        <v>-0.1445901100943791</v>
       </c>
       <c r="G77">
-        <v>-0.03203627962077247</v>
+        <v>-0.2590795568539546</v>
       </c>
       <c r="H77">
-        <v>-0.01193370835478005</v>
+        <v>-0.01748593677357369</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2402,25 +2402,25 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>-3.08403368747462E-06</v>
+        <v>-0.001125817163949592</v>
       </c>
       <c r="C78">
-        <v>0.001767116308241817</v>
+        <v>0.002872362777700544</v>
       </c>
       <c r="D78">
-        <v>-7.094047236719902E-05</v>
+        <v>-0.001518757374323614</v>
       </c>
       <c r="E78">
-        <v>-0.002611310819770978</v>
+        <v>-0.003338668725785949</v>
       </c>
       <c r="F78">
-        <v>-0.0005933834251070175</v>
+        <v>-0.001763365405123159</v>
       </c>
       <c r="G78">
-        <v>-0.002481252668459684</v>
+        <v>-0.003337983443664459</v>
       </c>
       <c r="H78">
-        <v>-0.001612852022585096</v>
+        <v>-0.002415235087884752</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2428,25 +2428,25 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>-1.027646414040308E-05</v>
+        <v>-4.89576982010145E-06</v>
       </c>
       <c r="C79">
-        <v>0.002070679019622501</v>
+        <v>0.002296789147234919</v>
       </c>
       <c r="D79">
-        <v>-0.001377712694927805</v>
+        <v>-0.001333528465505183</v>
       </c>
       <c r="E79">
-        <v>-0.002103457946517266</v>
+        <v>-0.003422452132230661</v>
       </c>
       <c r="F79">
-        <v>-0.001439085645252171</v>
+        <v>-0.001489653220023929</v>
       </c>
       <c r="G79">
-        <v>-0.002867617788825382</v>
+        <v>-0.00291538660101121</v>
       </c>
       <c r="H79">
-        <v>-0.001475030259058297</v>
+        <v>-0.001310433142658331</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2454,25 +2454,25 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-2.436582754462887E-06</v>
+        <v>-4.446340218504008E-06</v>
       </c>
       <c r="C80">
-        <v>0.001563809897390084</v>
+        <v>0.002179817411182752</v>
       </c>
       <c r="D80">
-        <v>-0.0004298012039027558</v>
+        <v>-0.00080484603809037</v>
       </c>
       <c r="E80">
-        <v>-0.001855612890674991</v>
+        <v>-0.002957035623716023</v>
       </c>
       <c r="F80">
-        <v>-0.0009829332046307566</v>
+        <v>-0.002117671687130059</v>
       </c>
       <c r="G80">
-        <v>-0.002394934202822095</v>
+        <v>-0.002696233183896335</v>
       </c>
       <c r="H80">
-        <v>-0.001510152302571433</v>
+        <v>-0.001562265773175937</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2480,25 +2480,25 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>-0.005319800477982879</v>
+        <v>-0.0008245014770928914</v>
       </c>
       <c r="C81">
-        <v>0.01168188252961204</v>
+        <v>0.002174363821999148</v>
       </c>
       <c r="D81">
-        <v>-0.01279153595032862</v>
+        <v>-0.001140617884178938</v>
       </c>
       <c r="E81">
-        <v>-0.01920442325040118</v>
+        <v>-0.002932019426954233</v>
       </c>
       <c r="F81">
-        <v>-0.01081087147559261</v>
+        <v>-0.001835970306242905</v>
       </c>
       <c r="G81">
-        <v>-0.02573072137163503</v>
+        <v>-0.002964273594538339</v>
       </c>
       <c r="H81">
-        <v>-0.01134196811334168</v>
+        <v>-0.001912253422609193</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2506,25 +2506,25 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.007030615099397939</v>
+        <v>-3.52560206509602E-06</v>
       </c>
       <c r="C82">
-        <v>0.01993384207799554</v>
+        <v>0.002301657751964097</v>
       </c>
       <c r="D82">
-        <v>-0.007523112778912933</v>
+        <v>-0.0007863845261869359</v>
       </c>
       <c r="E82">
-        <v>-0.02272070622144435</v>
+        <v>-0.002900887645370996</v>
       </c>
       <c r="F82">
-        <v>-0.01216423590419397</v>
+        <v>-0.001030651639283671</v>
       </c>
       <c r="G82">
-        <v>-0.02776446238913477</v>
+        <v>-0.002576859408358433</v>
       </c>
       <c r="H82">
-        <v>-0.01323723332314217</v>
+        <v>-0.0006605286716466417</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2532,25 +2532,25 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-0.00627760745937917</v>
+        <v>-0.007677456899827189</v>
       </c>
       <c r="C83">
-        <v>0.01678472781306053</v>
+        <v>0.02315849526655026</v>
       </c>
       <c r="D83">
-        <v>-0.009608612277186717</v>
+        <v>-0.01494726321502482</v>
       </c>
       <c r="E83">
-        <v>-0.0188925627110736</v>
+        <v>-0.02633743732637112</v>
       </c>
       <c r="F83">
-        <v>-0.01149563453516144</v>
+        <v>-0.0114439189012891</v>
       </c>
       <c r="G83">
-        <v>-0.02906133896911921</v>
+        <v>-0.03217183044985067</v>
       </c>
       <c r="H83">
-        <v>-0.01244948505753253</v>
+        <v>-0.007075462270046886</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2558,25 +2558,25 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>-2.80122774171437E-06</v>
+        <v>-3.346525798404814E-06</v>
       </c>
       <c r="C84">
-        <v>0.001203732623394956</v>
+        <v>0.001751495393119725</v>
       </c>
       <c r="D84">
-        <v>-0.001110107221392661</v>
+        <v>-0.001504968381022115</v>
       </c>
       <c r="E84">
-        <v>-0.001770874709641621</v>
+        <v>-0.002799142478806638</v>
       </c>
       <c r="F84">
-        <v>-0.0006055430832964016</v>
+        <v>-0.001526926000450246</v>
       </c>
       <c r="G84">
-        <v>-0.003090867619265033</v>
+        <v>-0.002313007752433516</v>
       </c>
       <c r="H84">
-        <v>-0.001253722506592868</v>
+        <v>-0.0006922202347107775</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2584,25 +2584,25 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>-1.154713671690553E-05</v>
+        <v>-0.006218071939030075</v>
       </c>
       <c r="C85">
-        <v>0.002297503405512316</v>
+        <v>0.01673610067074426</v>
       </c>
       <c r="D85">
-        <v>-0.001251959994915467</v>
+        <v>-0.007615307717158271</v>
       </c>
       <c r="E85">
-        <v>-0.002742547353966585</v>
+        <v>-0.02844149161817933</v>
       </c>
       <c r="F85">
-        <v>-0.0007158854599655537</v>
+        <v>-0.004721928167330492</v>
       </c>
       <c r="G85">
-        <v>-0.003152905860770818</v>
+        <v>-0.02987389166891944</v>
       </c>
       <c r="H85">
-        <v>-0.00113437317482855</v>
+        <v>-0.01017536434272433</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2610,25 +2610,25 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-4.00044269554776E-06</v>
+        <v>-0.0935434164825579</v>
       </c>
       <c r="C86">
-        <v>0.001339794444841803</v>
+        <v>0.4615189507783674</v>
       </c>
       <c r="D86">
-        <v>-0.001125958247792847</v>
+        <v>-0.2975458126892851</v>
       </c>
       <c r="E86">
-        <v>-0.002245301671900918</v>
+        <v>-0.1370093696838419</v>
       </c>
       <c r="F86">
-        <v>-0.00176126179673324</v>
+        <v>-0.04721019073795563</v>
       </c>
       <c r="G86">
-        <v>-0.003021149966158479</v>
+        <v>-0.3251812495933402</v>
       </c>
       <c r="H86">
-        <v>-0.002094207237311503</v>
+        <v>-0.08993672144579051</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2636,25 +2636,25 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>-2.631894866099592E-06</v>
+        <v>-0.008138152103974229</v>
       </c>
       <c r="C87">
-        <v>0.000975685637962633</v>
+        <v>0.01858214531820363</v>
       </c>
       <c r="D87">
-        <v>-0.001546656264679061</v>
+        <v>-0.0196968089624798</v>
       </c>
       <c r="E87">
-        <v>-0.001723133618966243</v>
+        <v>-0.03189660225813878</v>
       </c>
       <c r="F87">
-        <v>-0.0006986339235057682</v>
+        <v>-0.01119894052569807</v>
       </c>
       <c r="G87">
-        <v>-0.002619377635348364</v>
+        <v>-0.02868458176602424</v>
       </c>
       <c r="H87">
-        <v>-0.001612552060104971</v>
+        <v>-0.0103427531568758</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2662,25 +2662,25 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-0.01046801880367382</v>
+        <v>-3.545566987896048E-06</v>
       </c>
       <c r="C88">
-        <v>0.01405394637759706</v>
+        <v>0.001579085503570469</v>
       </c>
       <c r="D88">
-        <v>-0.01477140756149825</v>
+        <v>-0.001596412760843875</v>
       </c>
       <c r="E88">
-        <v>-0.02383296183794454</v>
+        <v>-0.002427795512928611</v>
       </c>
       <c r="F88">
-        <v>-0.01258178199083621</v>
+        <v>-0.001387381413535721</v>
       </c>
       <c r="G88">
-        <v>-0.04035451559154576</v>
+        <v>-0.002943157619376394</v>
       </c>
       <c r="H88">
-        <v>-0.01743815014852252</v>
+        <v>-0.001036369126664156</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2688,25 +2688,25 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-3.597154304262484E-06</v>
+        <v>-0.008182488364567935</v>
       </c>
       <c r="C89">
-        <v>0.001621840552730966</v>
+        <v>0.01974788680113591</v>
       </c>
       <c r="D89">
-        <v>-0.001337194753053917</v>
+        <v>-0.0148428960250663</v>
       </c>
       <c r="E89">
-        <v>-0.002378556526076084</v>
+        <v>-0.0261954486843251</v>
       </c>
       <c r="F89">
-        <v>-0.0004719626568038891</v>
+        <v>-0.01308958010978354</v>
       </c>
       <c r="G89">
-        <v>-0.003100952402463027</v>
+        <v>-0.0343632752998965</v>
       </c>
       <c r="H89">
-        <v>-0.001520766265753007</v>
+        <v>-0.01399386858844505</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2714,25 +2714,25 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-0.0009614043813052891</v>
+        <v>-3.800219594264041E-06</v>
       </c>
       <c r="C90">
-        <v>0.00267225197522842</v>
+        <v>0.00156011446968017</v>
       </c>
       <c r="D90">
-        <v>-0.001195769846423981</v>
+        <v>-0.001159532343018363</v>
       </c>
       <c r="E90">
-        <v>-0.002643808965058318</v>
+        <v>-0.002900669505891436</v>
       </c>
       <c r="F90">
-        <v>-0.001212917377206594</v>
+        <v>-0.001432302385297065</v>
       </c>
       <c r="G90">
-        <v>-0.003239315796158365</v>
+        <v>-0.002678421529415539</v>
       </c>
       <c r="H90">
-        <v>-0.001672463063358158</v>
+        <v>-0.00167403556037543</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2740,25 +2740,25 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-4.0032259665377E-06</v>
+        <v>-4.114875130814317E-06</v>
       </c>
       <c r="C91">
-        <v>0.002272209786047934</v>
+        <v>0.00206718040839435</v>
       </c>
       <c r="D91">
-        <v>-0.000728679362935485</v>
+        <v>-0.0009212419829934774</v>
       </c>
       <c r="E91">
-        <v>-0.002726601323003495</v>
+        <v>-0.002988921251943281</v>
       </c>
       <c r="F91">
-        <v>-0.0009625202424187159</v>
+        <v>-0.001439860257175731</v>
       </c>
       <c r="G91">
-        <v>-0.003130140654498663</v>
+        <v>-0.002796634473072343</v>
       </c>
       <c r="H91">
-        <v>-0.0009402475760820419</v>
+        <v>-0.001508567717364967</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2766,25 +2766,25 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-0.009089134939917632</v>
+        <v>-0.09388680538856711</v>
       </c>
       <c r="C92">
-        <v>0.01332943712010959</v>
+        <v>0.3764306238824627</v>
       </c>
       <c r="D92">
-        <v>-0.01279610036222169</v>
+        <v>-0.3661614776013061</v>
       </c>
       <c r="E92">
-        <v>-0.02547406883936914</v>
+        <v>-0.2727335437072196</v>
       </c>
       <c r="F92">
-        <v>-0.006876976815360001</v>
+        <v>-0.06170286831603061</v>
       </c>
       <c r="G92">
-        <v>-0.03517201785094089</v>
+        <v>-0.3196882611557759</v>
       </c>
       <c r="H92">
-        <v>-0.019954533829555</v>
+        <v>-0.04970107571876795</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2792,25 +2792,25 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-0.0009102767626478799</v>
+        <v>-0.0008625830896513358</v>
       </c>
       <c r="C93">
-        <v>0.00147588099408831</v>
+        <v>0.00211463649519551</v>
       </c>
       <c r="D93">
-        <v>-0.001401082086538445</v>
+        <v>-0.001294521783836257</v>
       </c>
       <c r="E93">
-        <v>-0.00214917858595906</v>
+        <v>-0.003059523454329923</v>
       </c>
       <c r="F93">
-        <v>-0.001076106039584699</v>
+        <v>-0.001465555311976371</v>
       </c>
       <c r="G93">
-        <v>-0.003685992826323298</v>
+        <v>-0.003595629522284071</v>
       </c>
       <c r="H93">
-        <v>-0.002280784403734061</v>
+        <v>-0.001187494516755327</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2818,25 +2818,25 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>-0.009514732811773976</v>
+        <v>-3.419498690299879E-06</v>
       </c>
       <c r="C94">
-        <v>0.01821170742753548</v>
+        <v>0.001266387564819711</v>
       </c>
       <c r="D94">
-        <v>-0.01726489147117082</v>
+        <v>-0.001367978222079249</v>
       </c>
       <c r="E94">
-        <v>-0.02142919100057479</v>
+        <v>-0.002429567145602856</v>
       </c>
       <c r="F94">
-        <v>-0.009680072973605399</v>
+        <v>-0.001154512036794706</v>
       </c>
       <c r="G94">
-        <v>-0.0317176788703243</v>
+        <v>-0.002937468561235368</v>
       </c>
       <c r="H94">
-        <v>-0.02448622350842408</v>
+        <v>-0.001566569058238473</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2844,25 +2844,25 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>-0.006456800846689452</v>
+        <v>-0.005860155791805706</v>
       </c>
       <c r="C95">
-        <v>0.01271684496225986</v>
+        <v>0.01390058190934977</v>
       </c>
       <c r="D95">
-        <v>-0.01778948878019287</v>
+        <v>-0.0172378504383311</v>
       </c>
       <c r="E95">
-        <v>-0.0182926211524294</v>
+        <v>-0.02766362532132201</v>
       </c>
       <c r="F95">
-        <v>-0.007235466340155959</v>
+        <v>-0.006387260636331938</v>
       </c>
       <c r="G95">
-        <v>-0.02851314161109335</v>
+        <v>-0.02269409856566358</v>
       </c>
       <c r="H95">
-        <v>-0.01508739682690381</v>
+        <v>-0.01488355949859378</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2870,25 +2870,25 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>-0.001059058891136905</v>
+        <v>-3.928159078413645E-06</v>
       </c>
       <c r="C96">
-        <v>0.002105278669856206</v>
+        <v>0.001972996682874431</v>
       </c>
       <c r="D96">
-        <v>-0.001596448755791642</v>
+        <v>-0.0009306776426659545</v>
       </c>
       <c r="E96">
-        <v>-0.002882797097589361</v>
+        <v>-0.002641717662149704</v>
       </c>
       <c r="F96">
-        <v>-0.001173575188870041</v>
+        <v>-0.001433050853373368</v>
       </c>
       <c r="G96">
-        <v>-0.003420203792806136</v>
+        <v>-0.003240060007526587</v>
       </c>
       <c r="H96">
-        <v>-0.00224494929358188</v>
+        <v>-0.0008640443740388702</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2896,25 +2896,25 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-0.001000342556711214</v>
+        <v>-1.152873162127824E-05</v>
       </c>
       <c r="C97">
-        <v>0.001509819955140047</v>
+        <v>0.002376389125314413</v>
       </c>
       <c r="D97">
-        <v>-0.001537888617395526</v>
+        <v>-0.001620491716901617</v>
       </c>
       <c r="E97">
-        <v>-0.002157818415317731</v>
+        <v>-0.002934974304757676</v>
       </c>
       <c r="F97">
-        <v>-0.001321439942354863</v>
+        <v>-0.001276579639182635</v>
       </c>
       <c r="G97">
-        <v>-0.00399688515583425</v>
+        <v>-0.002567370369407574</v>
       </c>
       <c r="H97">
-        <v>-0.002135764129262875</v>
+        <v>-0.0009848828495826049</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2922,25 +2922,25 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-0.0008699712819935249</v>
+        <v>-0.05625105493853064</v>
       </c>
       <c r="C98">
-        <v>0.001817029569864438</v>
+        <v>0.2474505304565915</v>
       </c>
       <c r="D98">
-        <v>-0.001188577071083117</v>
+        <v>-0.194020286431231</v>
       </c>
       <c r="E98">
-        <v>-0.002521542983659459</v>
+        <v>-0.1443712070524476</v>
       </c>
       <c r="F98">
-        <v>-0.0008911995805976711</v>
+        <v>-0.1479941902014412</v>
       </c>
       <c r="G98">
-        <v>-0.003540399287648181</v>
+        <v>-0.2829146085762374</v>
       </c>
       <c r="H98">
-        <v>-0.001735260900612143</v>
+        <v>-0.04508457937256575</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2948,25 +2948,25 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>-0.1230787079584844</v>
+        <v>-0.06573520988865449</v>
       </c>
       <c r="C99">
-        <v>0.1739668715957443</v>
+        <v>0.2821692410330838</v>
       </c>
       <c r="D99">
-        <v>-0.1532953479877556</v>
+        <v>-0.1223149089704603</v>
       </c>
       <c r="E99">
-        <v>-0.2327229054606753</v>
+        <v>-0.1523356457138169</v>
       </c>
       <c r="F99">
-        <v>-0.1025241151859266</v>
+        <v>-0.1628183005866931</v>
       </c>
       <c r="G99">
-        <v>-0.4681123930081402</v>
+        <v>-0.3067575705572592</v>
       </c>
       <c r="H99">
-        <v>-0.1714451043932542</v>
+        <v>0.009766014807882955</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2974,25 +2974,25 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-3.917524197955554E-06</v>
+        <v>-1.100385965577572E-05</v>
       </c>
       <c r="C100">
-        <v>0.001813263197631243</v>
+        <v>0.002111474492542981</v>
       </c>
       <c r="D100">
-        <v>-0.00123457565353512</v>
+        <v>-0.0009630061449643791</v>
       </c>
       <c r="E100">
-        <v>-0.002376948352908409</v>
+        <v>-0.002299601055108026</v>
       </c>
       <c r="F100">
-        <v>-0.001124209644488227</v>
+        <v>-0.001086910888288979</v>
       </c>
       <c r="G100">
-        <v>-0.00303567657394069</v>
+        <v>-0.003398735774504678</v>
       </c>
       <c r="H100">
-        <v>-0.001807154460424422</v>
+        <v>-0.001728693573979401</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3000,25 +3000,25 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-0.001134034053512924</v>
+        <v>-0.0009375973674135775</v>
       </c>
       <c r="C101">
-        <v>0.002708221908560677</v>
+        <v>0.002287907603338976</v>
       </c>
       <c r="D101">
-        <v>-0.0006694754814939591</v>
+        <v>-0.001579730971996623</v>
       </c>
       <c r="E101">
-        <v>-0.002918285774822164</v>
+        <v>-0.00299542040290788</v>
       </c>
       <c r="F101">
-        <v>-0.0009788019269433338</v>
+        <v>-0.0006690302088394255</v>
       </c>
       <c r="G101">
-        <v>-0.003882734332433222</v>
+        <v>-0.003717323810736561</v>
       </c>
       <c r="H101">
-        <v>-0.001855552019067736</v>
+        <v>-0.002070121407673679</v>
       </c>
     </row>
   </sheetData>
